--- a/LianAgentPortal/wwwroot/mau-upload-dai-ly-lian/mau-upload-dai-ly-lian-tndsbb-moto.xlsx
+++ b/LianAgentPortal/wwwroot/mau-upload-dai-ly-lian/mau-upload-dai-ly-lian-tndsbb-moto.xlsx
@@ -1,22 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t>BIỂN SỐ</t>
+  </si>
+  <si>
+    <t>SỐ KHUNG</t>
+  </si>
+  <si>
+    <t>SỐ MÁY</t>
+  </si>
+  <si>
+    <t>HỌ TÊN CHỦ XE</t>
+  </si>
+  <si>
+    <t>SỐ ĐIỆN THOẠI NHẬN GCN</t>
+  </si>
+  <si>
+    <t>CCCD/CMND</t>
+  </si>
+  <si>
+    <t>THAM GIA TAI NẠN NGƯỜI NGỒI</t>
+  </si>
+  <si>
+    <t>NGÀY SINH</t>
+  </si>
+  <si>
+    <t>NGÀY BẮT ĐẦU HIỆU LỰC</t>
+  </si>
+  <si>
+    <t>63B711443</t>
+  </si>
+  <si>
+    <t>LOẠI XE/ DUNG TÍCH XI LANH</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN AN</t>
+  </si>
+  <si>
+    <t>0962473427</t>
+  </si>
+  <si>
+    <t>312142431</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LOẠI XE</t>
+  </si>
+  <si>
+    <t>DƯỚI 50cc</t>
+  </si>
+  <si>
+    <t>TRÊN 50cc</t>
+  </si>
+  <si>
+    <t>BA BÁNH</t>
+  </si>
+  <si>
+    <t>KHÁC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -44,14 +142,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +453,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36526</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LianAgentPortal/wwwroot/mau-upload-dai-ly-lian/mau-upload-dai-ly-lian-tndsbb-moto.xlsx
+++ b/LianAgentPortal/wwwroot/mau-upload-dai-ly-lian/mau-upload-dai-ly-lian-tndsbb-moto.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>BIỂN SỐ</t>
   </si>
@@ -57,33 +57,6 @@
   </si>
   <si>
     <t>312142431</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>LOẠI XE</t>
@@ -457,7 +430,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -541,34 +514,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -603,27 +558,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
